--- a/xml_parsing/pub_mapping.xlsx
+++ b/xml_parsing/pub_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>elements</t>
   </si>
@@ -119,23 +119,108 @@
     <t>run "infoList = response.xpath("//div[@class='articleinfo']/p")"</t>
   </si>
   <si>
-    <t>root.xpath('//publisher/publisher-name')</t>
-  </si>
-  <si>
-    <t>extract from pdf</t>
-  </si>
-  <si>
-    <t>should we use PMD id instead?</t>
-  </si>
-  <si>
-    <t>root.path('//</t>
+    <t>extract from pmc api composition</t>
+  </si>
+  <si>
+    <t>elements = root.xpath("//article-meta/contrib-group/contrib[@contrib-type='author'][.//name/surname/text() and .//name/given-names/text()]")
+for element in elements:
+ surname = element.xpath(".//name/surname/text()")[0]
+ givenName = element.xpath(".//name/given-names/text()")[0]
+ fullname = givenName + " " + surname
+ print fullname</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>current time</t>
+  </si>
+  <si>
+    <t>harcode "SYS"</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/pub-date[@pub-type='epub']/year")
+root.xpath("//article-meta/pub-date[@pub-type='epub']/month")
+root.xpath("//article-meta/pub-date[@pub-type='epub']/day")</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/copyright-statement")</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/title-group/article-title")</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/article-id[@pub-id-type='pmc']")</t>
+  </si>
+  <si>
+    <t>root.xpath("//journal-meta/publisher/publisher-name")</t>
+  </si>
+  <si>
+    <t>TO BE DETERMINED BY "CC BY" or "CC BY NA"</t>
+  </si>
+  <si>
+    <t>section_id</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>countent_seq</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>[system assign]</t>
+  </si>
+  <si>
+    <t>headerElements = root.xpath("//body/sec[@sec-type='materials|methods']/title")</t>
+  </si>
+  <si>
+    <t>contentElements = titleElements[0].xpath("set:difference(./following-sibling::p, ./following-sibling::title[1]/following-sibling::p)", namespaces={"set": "http://exslt.org/sets"})
+for contentItem from contentElements:
+   contentElements.text</t>
+  </si>
+  <si>
+    <t>figure_id</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>root.xpath("//sec[@sec-type='display-objects']/fig[contains(@id, 'F')]/caption/p")</t>
+  </si>
+  <si>
+    <t>root.xpath("//sec[@sec-type='display-objects']/fig[contains(@id, 'F')]/graphic/@xlink:href", namespaces={"xlink": "http://www.w3.org/1999/xlink"})</t>
+  </si>
+  <si>
+    <t>make use of namespace and extracting attribute</t>
+  </si>
+  <si>
+    <t>not show all content</t>
+  </si>
+  <si>
+    <t>elements = root.xpath("//sec[@sec-type='display-objects']/fig[contains(@id, 'F')]/caption/p")
+etree.tostring(elements[0], pretty_print = False)</t>
+  </si>
+  <si>
+    <t>make use of etree.strip_tags()</t>
+  </si>
+  <si>
+    <t>multiple title with multiple paragraph, not test for single or null title</t>
+  </si>
+  <si>
+    <t>support multiple title, not test for single or null title</t>
+  </si>
+  <si>
+    <t>PMC in XML format? (PMC13901) TO BE TESTED: PMC3927474</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +247,25 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,16 +277,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,14 +587,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
     <col min="3" max="3" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -503,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -531,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -542,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -562,7 +663,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -573,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -584,9 +685,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="45">
       <c r="A9" t="s">
         <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -596,11 +700,17 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -609,6 +719,9 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -617,6 +730,9 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -625,6 +741,9 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
@@ -633,43 +752,67 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="105">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -680,26 +823,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xml_parsing/pub_mapping.xlsx
+++ b/xml_parsing/pub_mapping.xlsx
@@ -150,9 +150,6 @@
     <t>root.xpath("//article-meta/title-group/article-title")</t>
   </si>
   <si>
-    <t>root.xpath("//article-meta/article-id[@pub-id-type='pmc']")</t>
-  </si>
-  <si>
     <t>root.xpath("//journal-meta/publisher/publisher-name")</t>
   </si>
   <si>
@@ -213,7 +210,11 @@
     <t>support multiple title, not test for single or null title</t>
   </si>
   <si>
-    <t>PMC in XML format? (PMC13901) TO BE TESTED: PMC3927474</t>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/article-id[@pub-id-type='pmc']")
+REMARK: PMC in XML format? (PMC13901) TO BE TESTED: PMC3927474?</t>
   </si>
 </sst>
 </file>
@@ -587,7 +588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -604,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -632,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -657,13 +660,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>38</v>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -701,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -849,40 +852,40 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -917,43 +920,43 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/xml_parsing/pub_mapping.xlsx
+++ b/xml_parsing/pub_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10800"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pub_meta" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>elements</t>
   </si>
@@ -147,9 +147,6 @@
     <t>root.xpath("//article-meta/copyright-statement")</t>
   </si>
   <si>
-    <t>root.xpath("//article-meta/title-group/article-title")</t>
-  </si>
-  <si>
     <t>root.xpath("//journal-meta/publisher/publisher-name")</t>
   </si>
   <si>
@@ -172,11 +169,6 @@
   </si>
   <si>
     <t>headerElements = root.xpath("//body/sec[@sec-type='materials|methods']/title")</t>
-  </si>
-  <si>
-    <t>contentElements = titleElements[0].xpath("set:difference(./following-sibling::p, ./following-sibling::title[1]/following-sibling::p)", namespaces={"set": "http://exslt.org/sets"})
-for contentItem from contentElements:
-   contentElements.text</t>
   </si>
   <si>
     <t>figure_id</t>
@@ -207,21 +199,58 @@
     <t>multiple title with multiple paragraph, not test for single or null title</t>
   </si>
   <si>
-    <t>support multiple title, not test for single or null title</t>
-  </si>
-  <si>
     <t>PMC</t>
   </si>
   <si>
-    <t>root.xpath("//article-meta/article-id[@pub-id-type='pmc']")
-REMARK: PMC in XML format? (PMC13901) TO BE TESTED: PMC3927474?</t>
+    <t>pubmed_id</t>
+  </si>
+  <si>
+    <t>pmc_id</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/article-id[@pub-id-type='pmc']")</t>
+  </si>
+  <si>
+    <t>citation_str</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/article-id[@pub-id-type='pmid']")</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/article-id[@pub-id-type='doi']")</t>
+  </si>
+  <si>
+    <t>root.xpath("//article-meta/title-group/article-title")
+header = etree.tostring(element[0], method='text')</t>
+  </si>
+  <si>
+    <t>need dynamic to support "materials|methods" and "methods"
+support multiple title, not test for single or null title</t>
+  </si>
+  <si>
+    <t>titleElements = root.xpath("//body/sec[@sec-type='materials|methods']")
+contentElements = titleElements[0].xpath("set:difference(./following-sibling::p, ./following-sibling::title[1]/following-sibling::p)", namespaces={"set": "http://exslt.org/sets"})
+for contentItem in contentElements:
+   contentElements.text</t>
+  </si>
+  <si>
+    <t>depreciate but working for sibling</t>
+  </si>
+  <si>
+    <t>sectElements = root.xpath("//body/sec[@sec-type='materials|methods']/sec[./title][./p]")
+for sectElement in sectElements:
+    titleElements = sectElement.xpath("./title")
+    pargElements = sectElement.xpath("./p")
+    print titleElements[0].text
+    for paragElement in paragElements:
+        print pargElements[0].text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +284,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +302,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -278,11 +319,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,8 +333,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -586,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,20 +657,20 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
@@ -635,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -645,7 +695,7 @@
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -656,34 +706,35 @@
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
+      <c r="C6" t="s">
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>29</v>
       </c>
@@ -700,41 +751,38 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
+      <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -742,7 +790,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -753,7 +801,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -762,59 +810,81 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="105">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -826,10 +896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,6 +907,7 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -852,40 +923,48 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="120">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="75">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90">
+      <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -897,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -920,43 +999,43 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
